--- a/src/analysis_examples/circadb/results_jtk/cosinor_10451198_vegfa_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10451198_vegfa_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.31957382634905135, 0.42509602744243696]</t>
+          <t>[0.3172263181470813, 0.427443535644407]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.638467139741806e-12</v>
+        <v>3.769873302417182e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>1.638467139741806e-12</v>
+        <v>3.769873302417182e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-0.754736973835386</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4336115096505252, 0.4890973503325743]</t>
+          <t>[0.43359486263580166, 0.4891139973472978]</t>
         </is>
       </c>
       <c r="U2" t="n">
